--- a/figs/table_variableMM.xlsx
+++ b/figs/table_variableMM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philipp/Documents/GitHub/hRELSA_application/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C29A3632-63BB-9940-BD29-8FC330010724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F346B40C-4159-954F-98AC-F0650BFF7DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="740" windowWidth="28240" windowHeight="16880" xr2:uid="{C421F378-F273-7D4E-9668-F3B9FB72EE62}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
